--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Location.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D82BD48-03F5-4C6F-B6D3-00F77E97CF0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D383AC93-E5DD-4244-A824-9E19ECDD6A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>company_code</t>
   </si>
@@ -52,6 +52,30 @@
     <t>location_long</t>
   </si>
   <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)</t>
+  </si>
+  <si>
+    <t>รหัส สถานที่  ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 100  ตัว</t>
+  </si>
+  <si>
+    <t>รายละเอียด สถานที่  ความยาวไม่เกิน 500  ตัว</t>
+  </si>
+  <si>
+    <t>ละติจูด  ความยาวไม่เกิน 100  ตัว</t>
+  </si>
+  <si>
+    <t>ลองจิจูด  ความยาวไม่เกิน 100  ตัว</t>
+  </si>
+  <si>
     <t>OPR</t>
   </si>
   <si>
@@ -61,34 +85,7 @@
     <t>สำนักงานใหญ่</t>
   </si>
   <si>
-    <t>952 อาคารรามาแลนด์ ชั้นที่ 11 ถนนพระรามสี่ แขวงสุริยวงศ์  เขตบางรัก จังหวัดกรุงเทพฯ 10500</t>
-  </si>
-  <si>
     <t>CENTER</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
-    <t>รหัส สถานที่  ความยาวไม่เกิน 5 ตัว</t>
-  </si>
-  <si>
-    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
-  </si>
-  <si>
-    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 100  ตัว</t>
-  </si>
-  <si>
-    <t>รายละเอียด สถานที่  ความยาวไม่เกิน 500  ตัว</t>
-  </si>
-  <si>
-    <t>ละติจูด  ความยาวไม่เกิน 100  ตัว</t>
-  </si>
-  <si>
-    <t>ลองจิจูด  ความยาวไม่เกิน 100  ตัว</t>
   </si>
 </sst>
 </file>
@@ -176,9 +173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -187,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -470,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -509,6 +506,9 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BAE52-8EA1-4DC0-96CB-165D37542CB8}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -535,28 +535,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,25 +587,16 @@
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>13.760645200000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100.6331538</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Location.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D383AC93-E5DD-4244-A824-9E19ECDD6A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB87506-698B-41E2-A36D-26625E6B2B87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>company_code</t>
   </si>
@@ -55,9 +55,6 @@
     <t>รหัสบริษัท</t>
   </si>
   <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
     <t>รหัส สถานที่  ความยาวไม่เกิน 5 ตัว</t>
   </si>
   <si>
@@ -86,6 +83,15 @@
   </si>
   <si>
     <t>CENTER</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -517,49 +526,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BAE52-8EA1-4DC0-96CB-165D37542CB8}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.1796875" style="3"/>
+    <col min="1" max="1" width="18.1796875" style="3"/>
+    <col min="2" max="2" width="23.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" style="3"/>
     <col min="5" max="5" width="21.36328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="85.26953125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="18.1796875" style="3"/>
+    <col min="7" max="9" width="18.1796875" style="3"/>
+    <col min="10" max="11" width="25.7265625" customWidth="1"/>
+    <col min="12" max="16384" width="18.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,22 +598,31 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
